--- a/simulation_results.xlsx
+++ b/simulation_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="46" uniqueCount="46">
   <si>
     <t>F</t>
   </si>
@@ -24,6 +24,9 @@
     <t>Signal_Filename</t>
   </si>
   <si>
+    <t>aperiodic_7.0.mat</t>
+  </si>
+  <si>
     <t>aperiodic_8.0.mat</t>
   </si>
   <si>
@@ -147,7 +150,7 @@
     <t>aperiodic_12.0.mat</t>
   </si>
   <si>
-    <t>aperiodic_14.0.mat</t>
+    <t>aperiodic_15.0.mat</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -217,10 +220,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>11.199999999999989</v>
+        <v>10.799999999999986</v>
       </c>
       <c r="B2" s="0">
-        <v>7.9933333333333332</v>
+        <v>7.0099883166861394</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
@@ -228,10 +231,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>11.199999999999989</v>
+        <v>12.499999999999984</v>
       </c>
       <c r="B3" s="0">
-        <v>8.0899999999999999</v>
+        <v>7.9966533389111021</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
@@ -239,10 +242,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>11.499999999999988</v>
+        <v>12.799999999999983</v>
       </c>
       <c r="B4" s="0">
-        <v>8.2033333333333331</v>
+        <v>8.0933198444669259</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
@@ -250,10 +253,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>11.599999999999989</v>
+        <v>12.799999999999983</v>
       </c>
       <c r="B5" s="0">
-        <v>8.3100000000000005</v>
+        <v>8.1933196778005382</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
@@ -261,10 +264,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>11.699999999999989</v>
+        <v>12.899999999999984</v>
       </c>
       <c r="B6" s="0">
-        <v>8.4033333333333342</v>
+        <v>8.2933195111341487</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>7</v>
@@ -272,10 +275,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>11.799999999999988</v>
+        <v>13.199999999999983</v>
       </c>
       <c r="B7" s="0">
-        <v>8.5066666666666659</v>
+        <v>8.4066526555789078</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>8</v>
@@ -283,10 +286,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>11.899999999999988</v>
+        <v>13.299999999999983</v>
       </c>
       <c r="B8" s="0">
-        <v>8.5966666666666658</v>
+        <v>8.5033191611347316</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -294,10 +297,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>11.999999999999988</v>
+        <v>13.599999999999982</v>
       </c>
       <c r="B9" s="0">
-        <v>8.6966666666666672</v>
+        <v>8.5966523389127687</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
@@ -305,10 +308,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>12.299999999999988</v>
+        <v>13.299999999999983</v>
       </c>
       <c r="B10" s="0">
-        <v>8.8100000000000005</v>
+        <v>8.6999855000241677</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>11</v>
@@ -316,10 +319,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>12.399999999999988</v>
+        <v>13.899999999999983</v>
       </c>
       <c r="B11" s="0">
-        <v>8.9066666666666663</v>
+        <v>8.8066519889133517</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>12</v>
@@ -327,10 +330,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>12.599999999999987</v>
+        <v>13.999999999999982</v>
       </c>
       <c r="B12" s="0">
-        <v>9</v>
+        <v>8.9099851500247507</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>13</v>
@@ -338,10 +341,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>12.799999999999986</v>
+        <v>13.999999999999982</v>
       </c>
       <c r="B13" s="0">
-        <v>9.1099999999999994</v>
+        <v>8.9966516722472125</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>14</v>
@@ -349,10 +352,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>12.699999999999987</v>
+        <v>14.299999999999981</v>
       </c>
       <c r="B14" s="0">
-        <v>9.1999999999999993</v>
+        <v>9.1033181611363982</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>15</v>
@@ -360,10 +363,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>13.099999999999987</v>
+        <v>14.399999999999981</v>
       </c>
       <c r="B15" s="0">
-        <v>9.3000000000000007</v>
+        <v>9.1966513389144353</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>16</v>
@@ -371,10 +374,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>12.899999999999988</v>
+        <v>14.799999999999981</v>
       </c>
       <c r="B16" s="0">
-        <v>9.4033333333333342</v>
+        <v>9.2999845000258343</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>17</v>
@@ -382,10 +385,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>13.199999999999987</v>
+        <v>14.799999999999981</v>
       </c>
       <c r="B17" s="0">
-        <v>9.4933333333333341</v>
+        <v>9.3999843333594448</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>18</v>
@@ -393,10 +396,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>13.399999999999986</v>
+        <v>14.99999999999998</v>
       </c>
       <c r="B18" s="0">
-        <v>9.5966666666666658</v>
+        <v>9.4999841666930553</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>19</v>
@@ -404,10 +407,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>13.399999999999986</v>
+        <v>15.299999999999979</v>
       </c>
       <c r="B19" s="0">
-        <v>9.6899999999999995</v>
+        <v>9.6033173278044544</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>20</v>
@@ -415,10 +418,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>13.599999999999987</v>
+        <v>15.299999999999979</v>
       </c>
       <c r="B20" s="0">
-        <v>9.7966666666666669</v>
+        <v>9.6933171778047047</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>21</v>
@@ -426,10 +429,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>13.899999999999986</v>
+        <v>15.099999999999982</v>
       </c>
       <c r="B21" s="0">
-        <v>9.8933333333333326</v>
+        <v>9.7999836666938887</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>22</v>
@@ -437,10 +440,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>13.799999999999986</v>
+        <v>15.59999999999998</v>
       </c>
       <c r="B22" s="0">
-        <v>9.9900000000000002</v>
+        <v>9.9099834833608611</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>23</v>
@@ -448,10 +451,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>13.799999999999986</v>
+        <v>15.799999999999979</v>
       </c>
       <c r="B23" s="0">
-        <v>10.1</v>
+        <v>10.003316661138898</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>24</v>
@@ -459,10 +462,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>13.999999999999986</v>
+        <v>15.799999999999979</v>
       </c>
       <c r="B24" s="0">
-        <v>10.199999999999999</v>
+        <v>10.10331649447251</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>25</v>
@@ -470,10 +473,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>14.399999999999986</v>
+        <v>16.299999999999983</v>
       </c>
       <c r="B25" s="0">
-        <v>10.31</v>
+        <v>10.206649655583908</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>26</v>
@@ -481,10 +484,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>14.499999999999986</v>
+        <v>16.299999999999983</v>
       </c>
       <c r="B26" s="0">
-        <v>10.403333333333334</v>
+        <v>10.303316161139731</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>27</v>
@@ -492,10 +495,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>14.599999999999985</v>
+        <v>16.499999999999986</v>
       </c>
       <c r="B27" s="0">
-        <v>10.49</v>
+        <v>10.409982650028917</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>28</v>
@@ -503,10 +506,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>14.699999999999985</v>
+        <v>16.599999999999987</v>
       </c>
       <c r="B28" s="0">
-        <v>10.6</v>
+        <v>10.493315844473592</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>29</v>
@@ -514,10 +517,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>14.999999999999984</v>
+        <v>16.79999999999999</v>
       </c>
       <c r="B29" s="0">
-        <v>10.699999999999999</v>
+        <v>10.593315677807205</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>30</v>
@@ -525,10 +528,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>15.199999999999985</v>
+        <v>16.699999999999989</v>
       </c>
       <c r="B30" s="0">
-        <v>10.806666666666667</v>
+        <v>10.693315511140815</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>31</v>
@@ -536,10 +539,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>14.999999999999986</v>
+        <v>17.300000000000001</v>
       </c>
       <c r="B31" s="0">
-        <v>10.890000000000001</v>
+        <v>10.809981983363361</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>32</v>
@@ -547,10 +550,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>15.399999999999984</v>
+        <v>17.199999999999999</v>
       </c>
       <c r="B32" s="0">
-        <v>11.003333333333334</v>
+        <v>10.903315161141398</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>33</v>
@@ -558,10 +561,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>15.399999999999984</v>
+        <v>17.300000000000001</v>
       </c>
       <c r="B33" s="0">
-        <v>11.109999999999999</v>
+        <v>10.996648338919435</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>34</v>
@@ -569,10 +572,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>15.499999999999984</v>
+        <v>17.600000000000005</v>
       </c>
       <c r="B34" s="0">
-        <v>11.19</v>
+        <v>11.109981483364194</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>35</v>
@@ -580,10 +583,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>15.899999999999984</v>
+        <v>17.800000000000008</v>
       </c>
       <c r="B35" s="0">
-        <v>11.300000000000001</v>
+        <v>11.203314661142231</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>36</v>
@@ -591,10 +594,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>15.799999999999985</v>
+        <v>17.900000000000009</v>
       </c>
       <c r="B36" s="0">
-        <v>11.4</v>
+        <v>11.293314511142482</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>37</v>
@@ -602,10 +605,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>15.699999999999985</v>
+        <v>18.000000000000011</v>
       </c>
       <c r="B37" s="0">
-        <v>11.506666666666666</v>
+        <v>11.409980983365028</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>38</v>
@@ -613,10 +616,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>16.199999999999985</v>
+        <v>18.300000000000015</v>
       </c>
       <c r="B38" s="0">
-        <v>11.6</v>
+        <v>11.506647488920851</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>39</v>
@@ -624,10 +627,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>16.299999999999986</v>
+        <v>18.400000000000016</v>
       </c>
       <c r="B39" s="0">
-        <v>11.693333333333333</v>
+        <v>11.606647322254464</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>40</v>
@@ -635,10 +638,10 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>16.29999999999999</v>
+        <v>18.800000000000022</v>
       </c>
       <c r="B40" s="0">
-        <v>11.793333333333333</v>
+        <v>11.706647155588074</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>41</v>
@@ -646,10 +649,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>16.29999999999999</v>
+        <v>18.600000000000023</v>
       </c>
       <c r="B41" s="0">
-        <v>11.893333333333333</v>
+        <v>11.803313661143898</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>42</v>
@@ -657,10 +660,10 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>16.599999999999994</v>
+        <v>19.000000000000028</v>
       </c>
       <c r="B42" s="0">
-        <v>11.993333333333334</v>
+        <v>11.893313511144148</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>43</v>
@@ -668,13 +671,24 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>19.30000000000004</v>
+        <v>19.10000000000003</v>
       </c>
       <c r="B43" s="0">
-        <v>13.996666666666666</v>
+        <v>12.003313327811121</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>24.500000000000117</v>
+      </c>
+      <c r="B44" s="0">
+        <v>14.99664167226388</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
